--- a/LuBan/Datas/Server/S_StartZone.xlsx
+++ b/LuBan/Datas/Server/S_StartZone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27180" windowHeight="11520"/>
+    <workbookView windowWidth="21980" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>##var</t>
   </si>
@@ -24,10 +24,7 @@
     <t>Id</t>
   </si>
   <si>
-    <t>DBConnection</t>
-  </si>
-  <si>
-    <t>DBName</t>
+    <t>ServerName</t>
   </si>
   <si>
     <t>##type</t>
@@ -48,19 +45,13 @@
     <t>##</t>
   </si>
   <si>
-    <t>数据库地址</t>
+    <t>区服名称</t>
   </si>
   <si>
-    <t>数据库名</t>
+    <t>一区</t>
   </si>
   <si>
-    <t>mongodb://127.0.0.1</t>
-  </si>
-  <si>
-    <t>ET1</t>
-  </si>
-  <si>
-    <t>ET2</t>
+    <t>二区</t>
   </si>
 </sst>
 </file>
@@ -1068,22 +1059,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.4545454545455" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.45454545454545" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.3636363636364" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.8181818181818" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,72 +1083,53 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="14" ht="14.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
